--- a/biology/Zoologie/Conus_patglicksteinae/Conus_patglicksteinae.xlsx
+++ b/biology/Zoologie/Conus_patglicksteinae/Conus_patglicksteinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus patglicksteinae est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de l'holotype est de 25,55 mm.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Locus typicus : « (Chaluté à partir de) 400 pieds de profondeur au large de Palm Beach Island, Palm Beach County, Floride, États-Unis »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locus typicus : « (Chaluté à partir de) 400 pieds de profondeur au large de Palm Beach Island, Palm Beach County, Floride, États-Unis ».
 Cette espèce marine est présente dans l'océan Atlantique au large de la Floride à une profondeur de 122 m.
 </t>
         </is>
@@ -577,10 +593,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus patglicksteinae a été décrite pour la première fois en 1987 par le malacologiste américain Edward James Petuch (d)[2] dans « Charlottesville, Virginia : The Coastal Education and Research Foundation »[3],[4].
-Synonymes
-Conus (Dauciconus) patglicksteinae Petuch, 1987 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus patglicksteinae a été décrite pour la première fois en 1987 par le malacologiste américain Edward James Petuch (d) dans « Charlottesville, Virginia : The Coastal Education and Research Foundation »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_patglicksteinae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_patglicksteinae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) patglicksteinae Petuch, 1987 · appellation alternative
 Conus floridanus patglicksteinae Petuch, 1987 · non accepté
 Gradiconus patglicksteinae (Petuch, 1987) · non accepté</t>
         </is>
